--- a/biology/Botanique/Vins_de_Vénétie/Vins_de_Vénétie.xlsx
+++ b/biology/Botanique/Vins_de_Vénétie/Vins_de_Vénétie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vins_de_V%C3%A9n%C3%A9tie</t>
+          <t>Vins_de_Vénétie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Vénétie est une région viticole du nord-est de l'Italie. Les appellations les plus connues sont Amarone della Valpolicella, Bardolino, Prosecco, Soave et Valpolicella.
-La Vénétie comporte officiellement 14 vins DOCG depuis le 23/10/2012, ce qui en fait la deuxième région la plus dotée derrière le Piémont (16 DOCG) et devant la Toscane (11 DOCG)[1].
+La Vénétie comporte officiellement 14 vins DOCG depuis le 23/10/2012, ce qui en fait la deuxième région la plus dotée derrière le Piémont (16 DOCG) et devant la Toscane (11 DOCG).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vins_de_V%C3%A9n%C3%A9tie</t>
+          <t>Vins_de_Vénétie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vins en DOCG
-Les 14 appellations DOCG et leurs différentes typologies:
+          <t>Vins en DOCG</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les 14 appellations DOCG et leurs différentes typologies:
 Amarone della Valpolicella
 Bagnoli Friularo
 Bagnoli Friularo classico
@@ -563,9 +580,43 @@
 Recioto di Soave
 Recioto di Soave classico
 Recioto di Soave spumante
-Soave superiore
-Vins en DOC
-Arcole
+Soave superiore</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vins_de_Vénétie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vins_de_V%C3%A9n%C3%A9tie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les différentes appellations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vins en DOC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arcole
 Bagnoli di Sopra
 Bagnoli
 Bagnoli di Sopra bianco
@@ -754,9 +805,43 @@
 Valpolicella classico superiore
 Valpolicella superiore
 Valpolicella Valpantena
-Verduzzo
-Vins en IGT
-Depuis 1995:
+Verduzzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vins_de_Vénétie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vins_de_V%C3%A9n%C3%A9tie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les différentes appellations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vins en IGT</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Depuis 1995:
 Alto Livenza
 Colli Trevigiani
 Conselvano
@@ -766,7 +851,7 @@
 Vallagarina (Vignoble)
 Veneto
 Veneto orientale
-Depuis 1997[2]:
+Depuis 1997:
 Vigneti delle Dolomiti</t>
         </is>
       </c>
